--- a/Youtube.xlsx
+++ b/Youtube.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eveli\Git\RPA-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oti\Facultate\Materii\RPA\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F1C23D-C4CD-4341-BD67-D11F76B6B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{477ED47F-CE37-4C89-AEEE-33E727FF0210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dua Lipa - Don't Start Now (Of" sheetId="50" r:id="rId1"/>
+    <sheet name="SHOWING HWEI WHO'S DADDY..." sheetId="77" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Comentariu</t>
   </si>
@@ -33,49 +33,37 @@
     <t>Categorie</t>
   </si>
   <si>
-    <t>December 2023 anyone else? 🎉🎉🇬🇹</t>
-  </si>
-  <si>
     <t>Neutral</t>
   </si>
   <si>
-    <t>Who is here in 2024?❤😅🎉</t>
-  </si>
-  <si>
-    <t>OMG ITS THE FORTNITE SONG!!!</t>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Statistica</t>
+  </si>
+  <si>
+    <t>Procentaj</t>
   </si>
   <si>
     <t>Positive</t>
   </si>
   <si>
-    <t>love music</t>
-  </si>
-  <si>
-    <t>Kako ritam dobro voziii</t>
-  </si>
-  <si>
-    <t>Who lisening it in 2024 (it soon gonna be)</t>
-  </si>
-  <si>
-    <t>SWEEEEEEEEt + .</t>
-  </si>
-  <si>
-    <t>Don't tell my iron friends I'm here</t>
-  </si>
-  <si>
-    <t>I used to hate Dua Lipa. Now I like her</t>
-  </si>
-  <si>
-    <t>If dua lipa starts a cult I'll be the first to join ❤😂</t>
-  </si>
-  <si>
-    <t>Statistica</t>
-  </si>
-  <si>
-    <t>Procentaj</t>
-  </si>
-  <si>
-    <t>Negative</t>
+    <t>The Raiden Shogun theme song!! 🤩</t>
+  </si>
+  <si>
+    <t>I need whatever the editor is smoking</t>
+  </si>
+  <si>
+    <t>Not even the editor knows what you’re saying sometimes 😂😂</t>
+  </si>
+  <si>
+    <t>🙃</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>You can show me who’s daddy 🥺</t>
   </si>
 </sst>
 </file>
@@ -106,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6347"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,12 +132,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,124 +419,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04926ACD-8684-47B1-B057-2FE5786B6743}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CC7322-5E88-48E0-89BC-D6FC973EECDB}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="E2" s="6">
+        <v>0.1666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Youtube.xlsx
+++ b/Youtube.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oti\Facultate\Materii\RPA\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{477ED47F-CE37-4C89-AEEE-33E727FF0210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B6806A-E985-4B43-A860-76ACED2939BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SHOWING HWEI WHO'S DADDY..." sheetId="77" r:id="rId1"/>
+    <sheet name="Most successful joke ever" sheetId="81" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Comentariu</t>
   </si>
@@ -48,22 +48,34 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>The Raiden Shogun theme song!! 🤩</t>
-  </si>
-  <si>
-    <t>I need whatever the editor is smoking</t>
-  </si>
-  <si>
-    <t>Not even the editor knows what you’re saying sometimes 😂😂</t>
-  </si>
-  <si>
-    <t>🙃</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>You can show me who’s daddy 🥺</t>
+    <t>Is it just me that doesn’t get it?😂</t>
+  </si>
+  <si>
+    <t>Worst edit ever</t>
+  </si>
+  <si>
+    <t>He’s like, I never said that! I said you got any little bots I can French kiss</t>
+  </si>
+  <si>
+    <t>This video is HEAVILY EDITED.  It leaves out where the Dalai lama doesn't get it, and has to have pizzas explained to him, which is what's really funny about this.. https://www.youtube.com/watch?v=xlIrI80og8c</t>
+  </si>
+  <si>
+    <t>yeah, that's not how it went. I saw this years ago and it didn't land</t>
+  </si>
+  <si>
+    <t>That reminds me, the Tibet thing didn't really work out.</t>
+  </si>
+  <si>
+    <t>If a 100 billion lawsuit is a joke to you then let's go 💯</t>
+  </si>
+  <si>
+    <t>cringe as fuck heard a better joke from WOKE comedians and that's a stretch</t>
+  </si>
+  <si>
+    <t>Watch the longer version of this clip</t>
+  </si>
+  <si>
+    <t>The editing makes it look like he laughed way too immediately.</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,12 +125,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,14 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,25 +423,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CC7322-5E88-48E0-89BC-D6FC973EECDB}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90543C-860B-4D55-B5F0-67A2FF0CD03E}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -446,13 +450,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
-        <v>0.1666</v>
+      <c r="E2" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,46 +469,78 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.33329999999999999</v>
+      <c r="E3" s="1">
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Youtube.xlsx
+++ b/Youtube.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oti\Facultate\Materii\RPA\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B6806A-E985-4B43-A860-76ACED2939BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63FF23A9-C02B-4AF6-84BD-F6CC6CC4E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Most successful joke ever" sheetId="81" r:id="rId1"/>
+    <sheet name="MASINI NEMTESTI SH TANC" sheetId="97" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,46 +36,46 @@
     <t>Neutral</t>
   </si>
   <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Statistica</t>
+  </si>
+  <si>
+    <t>Procentaj</t>
+  </si>
+  <si>
     <t>Negative</t>
   </si>
   <si>
-    <t>Statistica</t>
-  </si>
-  <si>
-    <t>Procentaj</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Is it just me that doesn’t get it?😂</t>
-  </si>
-  <si>
-    <t>Worst edit ever</t>
-  </si>
-  <si>
-    <t>He’s like, I never said that! I said you got any little bots I can French kiss</t>
-  </si>
-  <si>
-    <t>This video is HEAVILY EDITED.  It leaves out where the Dalai lama doesn't get it, and has to have pizzas explained to him, which is what's really funny about this.. https://www.youtube.com/watch?v=xlIrI80og8c</t>
-  </si>
-  <si>
-    <t>yeah, that's not how it went. I saw this years ago and it didn't land</t>
-  </si>
-  <si>
-    <t>That reminds me, the Tibet thing didn't really work out.</t>
-  </si>
-  <si>
-    <t>If a 100 billion lawsuit is a joke to you then let's go 💯</t>
-  </si>
-  <si>
-    <t>cringe as fuck heard a better joke from WOKE comedians and that's a stretch</t>
-  </si>
-  <si>
-    <t>Watch the longer version of this clip</t>
-  </si>
-  <si>
-    <t>The editing makes it look like he laughed way too immediately.</t>
+    <t>15% voucher carVertical pe pagina mea - https://www.carvertical.com/ro/landing/99vehicles?b=5d986644&amp;a=YT1&amp;voucher=99vehicles</t>
+  </si>
+  <si>
+    <t>Eu am Zafira A 2.0 diesel cu 577 mii km...si nu am schimbat distrbutia sau alte chestii elementare...doar EGR ( 150 de lei) si electromotor...in rest fuge de te miri...😊</t>
+  </si>
+  <si>
+    <t>5:21 salut sunt posesor de 535d e60 motorul nu are nicio problema are stage 1 și are 45000 de km și e tank motorul!</t>
+  </si>
+  <si>
+    <t>Eu cred ca tu vorbesti doar din auzite 😂</t>
+  </si>
+  <si>
+    <t>Salutare ! Creźi că merită un audi a6 2.7 quatro din 2009 ?</t>
+  </si>
+  <si>
+    <t>wolkvagen Touareg 2010</t>
+  </si>
+  <si>
+    <t>Am x5 și burta goală 😅😅😅</t>
+  </si>
+  <si>
+    <t>Sa mai recomanzi motorizari diesel in 2023 mi se pare pur si simplu nepotrivit.</t>
+  </si>
+  <si>
+    <t>daca vreti de la turcia modelul nou de BMW seria 7 este 880LI</t>
+  </si>
+  <si>
+    <t>Zafira 1.9 CDTI 110 kW (150 CV)  manual 2006 ,ce parere ai ?? Multumesc.</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90EE90"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,11 +144,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -423,7 +430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E90543C-860B-4D55-B5F0-67A2FF0CD03E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2572E7A-F87C-4564-93EA-48F7CA4F1E82}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -431,17 +438,17 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -453,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,64 +474,64 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,11 +543,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Youtube.xlsx
+++ b/Youtube.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Oti\Facultate\Materii\RPA\RPA-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\RPA-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63FF23A9-C02B-4AF6-84BD-F6CC6CC4E787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A79DFD-265E-4C76-B6B0-7392DAE5EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MASINI NEMTESTI SH TANC" sheetId="97" r:id="rId1"/>
+    <sheet name="Ravel - Bolero. Sergiu Celibid" sheetId="72" r:id="rId1"/>
+    <sheet name="Gustav Mahler - Adagietto | Le" sheetId="73" r:id="rId2"/>
+    <sheet name="Beethoven 9th Symphony - Herbe" sheetId="74" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="290">
   <si>
     <t>Comentariu</t>
   </si>
@@ -33,10 +35,13 @@
     <t>Categorie</t>
   </si>
   <si>
+    <t>Positive</t>
+  </si>
+  <si>
     <t>Neutral</t>
   </si>
   <si>
-    <t>Positive</t>
+    <t>Negative</t>
   </si>
   <si>
     <t>Statistica</t>
@@ -45,37 +50,885 @@
     <t>Procentaj</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>15% voucher carVertical pe pagina mea - https://www.carvertical.com/ro/landing/99vehicles?b=5d986644&amp;a=YT1&amp;voucher=99vehicles</t>
-  </si>
-  <si>
-    <t>Eu am Zafira A 2.0 diesel cu 577 mii km...si nu am schimbat distrbutia sau alte chestii elementare...doar EGR ( 150 de lei) si electromotor...in rest fuge de te miri...😊</t>
-  </si>
-  <si>
-    <t>5:21 salut sunt posesor de 535d e60 motorul nu are nicio problema are stage 1 și are 45000 de km și e tank motorul!</t>
-  </si>
-  <si>
-    <t>Eu cred ca tu vorbesti doar din auzite 😂</t>
-  </si>
-  <si>
-    <t>Salutare ! Creźi că merită un audi a6 2.7 quatro din 2009 ?</t>
-  </si>
-  <si>
-    <t>wolkvagen Touareg 2010</t>
-  </si>
-  <si>
-    <t>Am x5 și burta goală 😅😅😅</t>
-  </si>
-  <si>
-    <t>Sa mai recomanzi motorizari diesel in 2023 mi se pare pur si simplu nepotrivit.</t>
-  </si>
-  <si>
-    <t>daca vreti de la turcia modelul nou de BMW seria 7 este 880LI</t>
-  </si>
-  <si>
-    <t>Zafira 1.9 CDTI 110 kW (150 CV)  manual 2006 ,ce parere ai ?? Multumesc.</t>
+    <t>❤❤❤❤❤❤</t>
+  </si>
+  <si>
+    <t>A God</t>
+  </si>
+  <si>
+    <t>❤❤❤❤❤❤❤❤❤❤❤❤❤❤❤</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Anyone know ? If  he was already taped in With all players of Instrument    Musicians  ? Who knows what  place was this Video made ? 🍷✈️🍷✈️🐸🐸🍿😻🍿🍷✈️</t>
+  </si>
+  <si>
+    <t>Semplicemente grandioso, unico!!!!!!!!!!!?!!!!!</t>
+  </si>
+  <si>
+    <t>❤❤❤</t>
+  </si>
+  <si>
+    <t>Belíssima obra sempre atual e ouvida
+Ravel foi um Gênio</t>
+  </si>
+  <si>
+    <t>mega-artist. pasiunea cu care dirijeaza e ... monumentala!</t>
+  </si>
+  <si>
+    <t>I have a single word to describes what Iam feeling .  Thank you Romenia, I thank all and each one for this unbelievable show. Lovett Love you guys 🇧🇷❤️</t>
+  </si>
+  <si>
+    <t>Fantastic DIRIJOR!</t>
+  </si>
+  <si>
+    <t>Merveilleux</t>
+  </si>
+  <si>
+    <t>‏‪e o placere sal vezji pe celibidaxhe d❤❤nirijand
+Ò10:08‬‏</t>
+  </si>
+  <si>
+    <t>This is more than a conductor and his orchestra  - it is Harmony of shared passions 🤗</t>
+  </si>
+  <si>
+    <t>Seen this vid for 20 + times ... his movements are incredible ! So demanding of the orchestra, so guiding, he shows you how to listen to the music while he is creating it ... its amazing to watch</t>
+  </si>
+  <si>
+    <t>Superb and very expressive mimicry of the Romanian conductor. A "feeler" of the melody composed by Ravel.</t>
+  </si>
+  <si>
+    <t>Pense que era Ruso el interprete waauu</t>
+  </si>
+  <si>
+    <t>This is sooo  good. To see all those emotions, ... amazing ! Bravo</t>
+  </si>
+  <si>
+    <t>If there were indeed an afterlife, Maurice Ravel would be having the last laugh, as he himself regarded Bolero as "...consisting wholly of orchestral tissue without music—of one very long, gradual crescendo. There are no contrasts, and practically no invention except the plan and the manner of execution."</t>
+  </si>
+  <si>
+    <t>Escudriña todas las fibras del alma y del cuerpo. Semeja una serpiente danzante 😊</t>
+  </si>
+  <si>
+    <t>If you see a duck gliding gracefully through the water, you don’t see the hard work it has to do under the waterline.
+Maestro Celibidache makes it looks like easy, gracefully and always in control, gliding on the waterline, the way he conducts his Orchestra.</t>
+  </si>
+  <si>
+    <t>To me, Sergiu Celibidache is conducting in his own way.  Fantastic</t>
+  </si>
+  <si>
+    <t>Пересластит українською</t>
+  </si>
+  <si>
+    <t>Nu ca sunt romanca, dar arta lui dirijorala este mult deasupra  celor contemporani lui!
+Este un adevărat uragan!</t>
+  </si>
+  <si>
+    <t>Fantastico</t>
+  </si>
+  <si>
+    <t>Ijole el cabr0n que esta tose y tose 👀 🤦🏻‍♂️</t>
+  </si>
+  <si>
+    <t>The best conductor ! Rip ! 🌷🌷🌷🌷🌷🌷</t>
+  </si>
+  <si>
+    <t>Magnificent 👏🏻👏🏻👏🏻 Thank you, 🇷🇴 Love from 🇷🇸</t>
+  </si>
+  <si>
+    <t>its Magic ❤</t>
+  </si>
+  <si>
+    <t>ich bin immer wieder faszinierd...sooooo schööön❤😅</t>
+  </si>
+  <si>
+    <t>Nu dirijeaza danseaza</t>
+  </si>
+  <si>
+    <t>Da da vlad a avut dreptate</t>
+  </si>
+  <si>
+    <t>Bubu matusa lui Gheorghe si ionica</t>
+  </si>
+  <si>
+    <t>Ein viriotose🎉</t>
+  </si>
+  <si>
+    <t>Mein Einstieg in die klassische musik vor 40 Jahren...er  ist einfach bezaubernt, mein Rumäne❤</t>
+  </si>
+  <si>
+    <t>Он не делает звук, музыку, созвучие, если музыканты не тупы)</t>
+  </si>
+  <si>
+    <t>❤🎉, I hope to, watching the, Video for, YouTube , for the next years, Mr. Ravel, is the best , ❤, I love it to see &amp; hearing his music ❤</t>
+  </si>
+  <si>
+    <t>The best bolero I've ever, I've listened to it for years and it's still like hearing it for the very first time with the thrill I get. No better conductor ever IMO</t>
+  </si>
+  <si>
+    <t>Masterpiece Magnificient, sublime conductor 💎</t>
+  </si>
+  <si>
+    <t>Yes, The  Video was done1971, anyone can tell, if Mr. Ravel is still does as this video, Great conducts ,  ❤👍🤗</t>
+  </si>
+  <si>
+    <t>still so good thank you</t>
+  </si>
+  <si>
+    <t>Sorry, maestro Ravell, but Celibidache IS your Bolero😊</t>
+  </si>
+  <si>
+    <t>なんでこんなに弱々しく開始するの？違うでしょ。</t>
+  </si>
+  <si>
+    <t>The most apt documentary I have ever watched.shame on you the western countries and your hypocrisy.</t>
+  </si>
+  <si>
+    <t>Maldita gente ignorante la que no para de toser.</t>
+  </si>
+  <si>
+    <t>I have to return time and again, to view the video of this performance, absolute perfection</t>
+  </si>
+  <si>
+    <t>Ez fantasztikus, ilyen magával ragadó - irányítást - ugyanakkor együttjátszást a zenekarral- még nem láttam. Minden percét élveztem❤</t>
+  </si>
+  <si>
+    <t>Mr. Ravel is the best Conductor:; with face , hands, Looks Well Dressy : I like  to watch &amp; listen sound ,❤</t>
+  </si>
+  <si>
+    <t>O dispositivo e 10</t>
+  </si>
+  <si>
+    <t>Eso se llama " Amor por lo que uno hace". Mis respetos a este señor.</t>
+  </si>
+  <si>
+    <t>Beauty will save the world!</t>
+  </si>
+  <si>
+    <t>Caralho!!!!!</t>
+  </si>
+  <si>
+    <t>Vejo a felicidade dele. Isso nos transmite também. Muito obrigado!</t>
+  </si>
+  <si>
+    <t>Música boa não tem Pátria, é de todo o Mundo. Espetacular!</t>
+  </si>
+  <si>
+    <t>Wow, Great , like to , watch, Mr. Ravel:; Fun , How he conduct &amp; show his Great  movements ❤</t>
+  </si>
+  <si>
+    <t>Adoro Este bolero  e diretto da Celibidache e' un premio per me,grazie gazie.❤❤❤❤</t>
+  </si>
+  <si>
+    <t>Wou!!❤️❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>je reste sans voix, mais très profondemment bouleversée ! remuée jusqu'aux tripes. c'est fantastique que quelqu'un ait eu l'idée de le filmer ! un spectacle que je n'imaginais pas possible !</t>
+  </si>
+  <si>
+    <t>His knowledge about the physics of sound, human psychology, and the physiology of the ear, all put together with his love for music can not be missed in the way he conducts (Although he would have hated that we are listening to a recorded performance!).</t>
+  </si>
+  <si>
+    <t>I most be the most musically ignorant in this world, but a conductor? This reminds me of Cantinflas.</t>
+  </si>
+  <si>
+    <t>l'ho sentito decine di volte ( 
+l'ultima in una gradevole esecuzione della Orchestra giovanile  della  Galizia ) e mi entusiasma sempre . Ma questa volta ho dovuto  apprezzare la misura e il rispetto dei tempi nella direzione  stupenda di Celibidache ,che si e ben tenuto al di fuori di quello stile chiassoso e pompieresco che spesso accompagna ,oggi ,la interpretazione di questo magnifico ( e al di là delle apparenze ) difficile brano musicale .</t>
+  </si>
+  <si>
+    <t>Right now the world is going through a real tough time so listening to this piece and watching Chelidabache performance make me believe there is still time for this 
+sad old world</t>
+  </si>
+  <si>
+    <t>❤❤❤❤❤</t>
+  </si>
+  <si>
+    <t>Poète de l'œuvre, être la chose c'est l'art de diriger un orchestre, a qui le tour ?</t>
+  </si>
+  <si>
+    <t>Odio estos nacos que tosen !!!!</t>
+  </si>
+  <si>
+    <t>Ravel reincarnat !</t>
+  </si>
+  <si>
+    <t>Interessant zu sehen, welche Zählzeiten Celibidache hervorhebt: nicht die 1, sondern die 2 und die 3!</t>
+  </si>
+  <si>
+    <t>Die Mixturklänge sind bei diesem Orchester so perfekt, wie Maurice Ravel sie haben wollte: Die Instrumente spielen die Themen parallel im Obertonabstand (C-Dur+E-Dur+G-Dur, Oktave sowieso) und verschmerzen derart zu einer neuen Klangfarbe, dass man die einzelnen Stimmen nicht mehr hören kann. Toll!</t>
+  </si>
+  <si>
+    <t>Македонская Фаланга: идёт и Всё подминает под Себя - я несу Вам Свободу от вас и себя:будь Проще!  получишь свой глоток Вина! О боги!- вы о Чём?amen?</t>
+  </si>
+  <si>
+    <t>Ravel Tempo 1/4 = 72. Celibidache MM ~62 !</t>
+  </si>
+  <si>
+    <t>Mi Tex/Mex, estoy escuchando Este mensaje hoy. Pero hoy te mande in mensaje que no se que  o quien me infuji a escribirtelo. Es muy feo El mensaje, era como alguien Malo me impulsaba con celos y solo decirte visas muy feas, una vez mas te imploro que me perfobes, no se que mas decirte, es ovea de Algo, pero por favor no lo hagas Caso, alonejor ya he a causado que me idues. Yo no se como explicar El momento en que empeze buen y era Algo que me empujaba a sacar Todo ESO que escribi, eso no es MiO es Algo que queria que yo dihera, para que tu rompas conmigo, ye quiero mi vida no lo puedo negar, es impossible es que es Algo que jamas senti con nadie, Eres mi Guerrero, y yo tu Reyna, por favor mi vida no hagas Caso a Todo ESO tan feo que terminar y lo que decia, esa no eta tu Ana, no yo jamas te diria eso, me siento tan mal, Y una vez mas no PenSe y no lo podia parar, hasta que termine, y Hora oyendo Esto que me dices me siento tan contenta de oirte decir que quieres estar conmigo por El resto de tu vida yo tambien, los dos juntitos, no Podemos dejar que otras fuerzas nos separen!! Ayudame mi vida tienes que ser fuerte por mi , dime que no me has cortado, mi Jinete rapido!! Recibe besos y abrazos de tu Reyna❤️💘💝💯💋🙏</t>
+  </si>
+  <si>
+    <t>in my humble opiniom there can only be one.... Sergiu ❤❤</t>
+  </si>
+  <si>
+    <t>Asa erau romanii...cum dracu am ajuns la Sosoaca si ciuca</t>
+  </si>
+  <si>
+    <t>❤❤❤😊</t>
+  </si>
+  <si>
+    <t>A masterpiece, a passion for perfection and one willing to take to supreme heights and finally immerse oneself is the sign of Supreme Master.</t>
+  </si>
+  <si>
+    <t>tonitruant, fantastique, une bataille, le boléro s'est réveillé! et ce gros plan sur le visage du chef à la fin....waouh</t>
+  </si>
+  <si>
+    <t>Meraviglioso.</t>
+  </si>
+  <si>
+    <t>Přenádherná skladba , skvělý PAN dirigent a orchestr, jen celkový dojem kazí několik krchlajících kreténů. ❤❤❤ R</t>
+  </si>
+  <si>
+    <t>Formidável 🎵❤️🇧🇷</t>
+  </si>
+  <si>
+    <t>He's good but there are othes just as good. He knos his craft for sure but i pr
+efer Karajan or Bernstein.</t>
+  </si>
+  <si>
+    <t>SEPERBĂ INTERPRETARE</t>
+  </si>
+  <si>
+    <t>in orasul roman este casa sa memoriala</t>
+  </si>
+  <si>
+    <t>impresionant !</t>
+  </si>
+  <si>
+    <t>Un monstru sacru al muzicii! Mimica,gestica,sentimentele exprimate pe chip,toate sunt ale unui om care trăiește emoția muzicii la maxim.</t>
+  </si>
+  <si>
+    <t>Era un vrajitor al muzicii simtea fiecare nota ne transmitea atata emotie!!so much emotions!! Thank you,Maestro</t>
+  </si>
+  <si>
+    <t>That cough… so annoying</t>
+  </si>
+  <si>
+    <t>just incredible i'm in tears</t>
+  </si>
+  <si>
+    <t>Este partitura perfectă de reprodus într-o partidă de amor sălbatic  !</t>
+  </si>
+  <si>
+    <t>Dragostea răbdătoare a unui bărbat tandru cu o femeie frigidă nesatisfăcută de soțul insensibil.</t>
+  </si>
+  <si>
+    <t>Jewish propaganda. I like arabians, because they have oil.
+😂</t>
+  </si>
+  <si>
+    <t>The absolute master piece for a Ravel Bolero.</t>
+  </si>
+  <si>
+    <t>이분  누구예요 ? 최고입니다</t>
+  </si>
+  <si>
+    <t>a showman!</t>
+  </si>
+  <si>
+    <t>Unfuckingfassbar!</t>
+  </si>
+  <si>
+    <t>Bravo! Bravíssimo! ❤</t>
+  </si>
+  <si>
+    <t>Wow! Wow! Wow! A feast for both the eyes and the ears! What a WONDERFUL conductor!</t>
+  </si>
+  <si>
+    <t>💖👏💖</t>
+  </si>
+  <si>
+    <t>Great. Very great</t>
+  </si>
+  <si>
+    <t>NÃO FAREI NENHUM COMENTÁRIO,  PORQUE ESTOU  ANDANDO PELO UNIVERSO E OUVINDO  ESTE VÍDEO...............ENTÃO, ESTOU  FORA  DA TERRA.🎉</t>
+  </si>
+  <si>
+    <t>When:; some Years ago, I was waiting  for , Back to My Home at the Airport, I remembered , He  was  play as it 
+us for the Traveler   can see Screen at the  Air Port .😊
+❤💘💘</t>
+  </si>
+  <si>
+    <t>Gustav Mahler invented a new language. The language of the soul. It is unspoken and unsaid yet the words are there in every note.</t>
+  </si>
+  <si>
+    <t>This Mahler's masterpiece is like to be dieing of love , slowly and deeper!</t>
+  </si>
+  <si>
+    <t>Me transporta, eleva mi alma. Gracias miles❤</t>
+  </si>
+  <si>
+    <t>🎻💔🫂</t>
+  </si>
+  <si>
+    <t>Sublime</t>
+  </si>
+  <si>
+    <t>Been able to listen something like this, in this contemporary epoch, makes you feel grateful just for being alive.</t>
+  </si>
+  <si>
+    <t>Was this used in Death in venice or was that a different piece altogether?</t>
+  </si>
+  <si>
+    <t>Leonard Bernstein taught Seiji Ozawa and_x000D_
+Yutaka Sado who are Japanese conductors._x000D_
+one day, Bernstein told about [Adagietto  by Gustav Mahler] to _x000D_
+Yutaka Sado. he said [Yutaka, Adagietto is just like a ONOU which is. just like a Noh (Noh (能, Nō, derived from the Sino-Japanese word for "skill" or "talent") is a major form of classical Japanese dance-drama that has been performed since the 14th century. Developed by Kan'ami and his son Zeami, it is the oldest major theater art that is still regularly performed today.). for instance, hands which are separated gradually combine taking time.  _x000D_
+When I choreographed this music, his words provided me many inspirations and indicated me how to choreograph._x000D_
+However, I chose Karajan's version for my dance work._x000D_
+If I could get Bernstein's version, I might choreograph his version._x000D_
+I regret that.</t>
+  </si>
+  <si>
+    <t>God help us all.....I guess he said as he saw real future,</t>
+  </si>
+  <si>
+    <t>Alien skills in Musical Composition. Just like Beethoven as he was completely deaf writing Ninth Symphony. You have to be God to explain it to someone how it was done……I am staring through the cage of those meticulous ink strokes - at an absolute beauty……we are all Salieri</t>
+  </si>
+  <si>
+    <t>I was just watching the trailer for the movie that's coming out about him "Maestro" and it scored this music. What an awesome piece to come back to, so serene.</t>
+  </si>
+  <si>
+    <t>such a wonderful piece</t>
+  </si>
+  <si>
+    <t>Que alimento para el alma…</t>
+  </si>
+  <si>
+    <t>A música mais linda de todas as que já ouvi!</t>
+  </si>
+  <si>
+    <t>that final low note is so satisfying</t>
+  </si>
+  <si>
+    <t>I came here from the trailer of Maestro by Bradley Cooper.</t>
+  </si>
+  <si>
+    <t>Stupenda. L'interpretazione di Bernstein è inarrivabile.</t>
+  </si>
+  <si>
+    <t>The trailer for his movie just dropped and it was amazing</t>
+  </si>
+  <si>
+    <t>i’ve been listening to more classical music recently and cant believe i only recently heard abt mahler this is SO SO beautiful. i don’t even know how to express it but it makes me happy sad and everything what a GORGEOUS piece of music 🫶</t>
+  </si>
+  <si>
+    <t>Not once did I see the harp player .... essential part ...</t>
+  </si>
+  <si>
+    <t>If this doesn’t touch your soul,  you can’t be human.😭😭</t>
+  </si>
+  <si>
+    <t>oh no, Bernstien, Mahler, Vienna, the trinity,</t>
+  </si>
+  <si>
+    <t>For me there is certainly love here, but also a lot of regrets.</t>
+  </si>
+  <si>
+    <t>My god ❤</t>
+  </si>
+  <si>
+    <t>Algo fuera de este mundo es este Adagio de Malher.Indescriptible lo que siento al escucharlo.</t>
+  </si>
+  <si>
+    <t>I suddenly wanted to hear this song, i got curious and looked for info on Mahler… its his 163rd birthday. Life is beautiful.</t>
+  </si>
+  <si>
+    <t>Sounds excellent at 1.7 speed.</t>
+  </si>
+  <si>
+    <t>Gustav Mahler is one of my favorite composers. Very deep, very emotional and melancholic. Though this interpretation by Leonard Bernstein is newer and fresh, it does not deliver the shock of emotions and climax you get from Berliner Philharmoniker directed by Herbert von Karajan. This piece in particular brings me to tears every time i hear it. Look it up and feel the difference.</t>
+  </si>
+  <si>
+    <t>Lo maximo de belleza.</t>
+  </si>
+  <si>
+    <t>He always gets me crying with this one, and with that facial impression at 3:00 which showed how deeply in love he was with music.
+Thank you Lenny!</t>
+  </si>
+  <si>
+    <t>On June 8, 1968, Bernstein conducted this piece at Robert F. Kennedy's funeral at St. Patrick's Cathedral.</t>
+  </si>
+  <si>
+    <t>Bernstein performed this piece by Mahler at the 1968 funeral of Robert Kennedy.</t>
+  </si>
+  <si>
+    <t>Ma nessuno ricorda che questo adagetto è stato usato dal grande Luchino Visconti per la colonna sonora di death in Venice?</t>
+  </si>
+  <si>
+    <t>The 'Adagietto' splendid serenity is the most exquisitely delicate orchestra texture.  Maestro Berstein's conducts contrasting with clarity, harmony and style is flawless, guiding the orchestra with his flexible approach.  What a marvellous musical solemnity.</t>
+  </si>
+  <si>
+    <t>Una joya llena de buenos momentos para el alma .</t>
+  </si>
+  <si>
+    <t>were there any women in this orchestra?</t>
+  </si>
+  <si>
+    <t>Sublime,  belíssima</t>
+  </si>
+  <si>
+    <t>Composed for Alma Mahler his beloved wife.</t>
+  </si>
+  <si>
+    <t>Who else conducts with his face!</t>
+  </si>
+  <si>
+    <t>I'll take Rachmaninoff's Vocalize or Barber's 2nd movement of his Violin Concerto over this Mahler despite my enormous respect for Bernstein. The test is, do I want to hear it again and again? Or, given me Schoenberg's Verklarte Nacht and it's radiance. I enjoy his Titan Symphony but much of Mahler is meh. Very subjective taste, true</t>
+  </si>
+  <si>
+    <t>Just art</t>
+  </si>
+  <si>
+    <t>Why do they all play it so sickly slow?  Mahler used to get through it in 7 minutes.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LTeGe2EVREE</t>
+  </si>
+  <si>
+    <t>As an AI, I'm unable to access or browse online content, including YouTube links. Therefore, I cannot determine the sentiment of the comment in question. Please provide the text of the comment for me to analyze.</t>
+  </si>
+  <si>
+    <t>If it were possible, I would have this played along with the "Lux Aeterna" ("Nimrod variation" by Sir Edward Elgar) sung at my funeral. Both are so exquisitely lovely.  How fortunate am I to have lived to be able to hear both pieces of music.</t>
+  </si>
+  <si>
+    <t>Es una pieza musical de una belleza excelsa
+Que arroba hasta el infinito</t>
+  </si>
+  <si>
+    <t>When I was young, I watched on TV the scene 
+of conductor Bernstein giving classical education for children. 
+From then on, I fell in love with the classics.</t>
+  </si>
+  <si>
+    <t>Es de una belleza extraordinaria 🌹🌹🌹</t>
+  </si>
+  <si>
+    <t>❤</t>
+  </si>
+  <si>
+    <t>der Sound is sowasvon scheisse das gibt Ohrenschmerzel. Und zu alledem keine attraktive Pianistin vor Ort!!!!</t>
+  </si>
+  <si>
+    <t>Gorgeous!  And a wonderful interpretation!  I’m so glad Bernstein finally dragged the Vienna Philharmonic kicking and screaming to get them to play Mahler’s music and do justice to it, because they had such animus against him!  And they play it here stunningly!</t>
+  </si>
+  <si>
+    <t>This piece I always listen when feel sad… I get happier at the end!
+Thank you, Leonard Bernstein!</t>
+  </si>
+  <si>
+    <t>Magnífico❤</t>
+  </si>
+  <si>
+    <t>Wunderbar!  Mir kommen immer die Tränen, wenn ich diesen Satz höre und noch dazu Bernstein als Interpret!</t>
+  </si>
+  <si>
+    <t>Wow... Thats love</t>
+  </si>
+  <si>
+    <t>Tar said that Bernstein conducted this at JFK's Memorial but in fact he conducted Mahler 2 The Resurrection - however Berstein does take 12 minutes</t>
+  </si>
+  <si>
+    <t>Human: ultimately divine.</t>
+  </si>
+  <si>
+    <t>True it is ❤️</t>
+  </si>
+  <si>
+    <t>Anyone from Tàr movie?</t>
+  </si>
+  <si>
+    <t>Listened for the first time…I’m in tears.</t>
+  </si>
+  <si>
+    <t>Appreciate there's no coughing during the recording</t>
+  </si>
+  <si>
+    <t>Who's here after watching Tár?</t>
+  </si>
+  <si>
+    <t>Lenny le magnifique avec sa gestuelle enveloppante et sa sensibilité à l'expression la plus pure de l'amour et de l'espoir. Le film Tar avec Cate Blanchett lui rend hommage. Merci, l'humain donne parfois le meilleur, admirons et aimons.</t>
+  </si>
+  <si>
+    <t>Qué maravilla, sublime</t>
+  </si>
+  <si>
+    <t>Maravilhosa!!!</t>
+  </si>
+  <si>
+    <t>Visconti a été bien inspiré d'uti;iser ce marceau merveilleux pour son film " Mort à Venise".</t>
+  </si>
+  <si>
+    <t>I wanted to play this at the most unfortunate death of my five year old son's cremation. I wish every day that I could have afforded the ensemble to pay him this tribute and honor. May we meet again in an alternate universe, my dear boy, Caden. Daddy loves you..</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>Not a wasted second, not a superfluos note. Yes, perfection.</t>
+  </si>
+  <si>
+    <t>Adam Neely brought me here</t>
+  </si>
+  <si>
+    <t>Thanks for the 4K video 👍</t>
+  </si>
+  <si>
+    <t>I hope a bunch of people come and watch this because of Tar.</t>
+  </si>
+  <si>
+    <t>Unfassbar schön und tief bewegend, wie Bernstein es schafft, Mahlers geniale Komposition mit so viel Tiefe zu dirigieren. Bereits die ersten Takte sind so ergreifend: die kleine, kraftvolle Pause gibt Bernstein mit einer klaren Kopfbewegung, einem Nicken, vor… ich bin so froh, dass ich dieses Stück entdeckt habe…!</t>
+  </si>
+  <si>
+    <t>Incredibly beautiful.</t>
+  </si>
+  <si>
+    <t>Bernstein so loved this piece of music, he was buried with a copy of the score of Mahler's 5th  laid across his heart.  This is one of the most magnificent pieces of music ever written.</t>
+  </si>
+  <si>
+    <t>"Für dich leben! Für dich sterben! Almschi!"</t>
+  </si>
+  <si>
+    <t>OH MY GOD,
+ THIS IS THE ADAGIETTO EVER WRITTEN IN ALL MUSICAL HISTORY , AND LISTEN REMASTERED IN AUDIO AND 4K VIDEO IS AS IF BERNSTEIN WOULD BE PRESENT CONDUCTING  FOR ALL OF US. THANKS FOR POSTING.  BRAVISIMO</t>
+  </si>
+  <si>
+    <t>This is an angel song!</t>
+  </si>
+  <si>
+    <t>Bernstein was buried with this folded on his chest.</t>
+  </si>
+  <si>
+    <t>4K is very well but rolling shutter effect its bad. Sound OK. The piece is wonderfull. Unforgetable in "Death in Venice"</t>
+  </si>
+  <si>
+    <t>Tar brought me here :)</t>
+  </si>
+  <si>
+    <t>The title of this YouTube clip needs to be ignored (or changed). Merely uploading a low-resolution file as a 4K file doesn't make it suddenly 4K, even with the most sophisticated A.I. upscaling algorithms.  The picture quality here is really quite terrible, compared to the film master that the uploader lacks access to.  There are also embarrassingly terrible compression and motion artifacts in this footage, as well as combing distortion from intermediate interlacing when downgrading from the film masters.</t>
+  </si>
+  <si>
+    <t>There was only one Mahler. There was only one Bernstein! What a com
+bination. This adagietto must have everyone in bits!!</t>
+  </si>
+  <si>
+    <t>애틋한 정열.. 그러나 애틋하다고만 하기에는 충분히 단단한 행위의 울림.. 우리는 그것을 번스타인의 지휘에서 발견할 수 있으며, 이것은 한 번의 삶에서 음미할 수 있는 최고의 맛과 같다 From Korea..</t>
+  </si>
+  <si>
+    <t>Bernstein was burried with this score...</t>
+  </si>
+  <si>
+    <t>❤❤❤❤</t>
+  </si>
+  <si>
+    <t>Tender ... excruciating ... gentle fire</t>
+  </si>
+  <si>
+    <t>The Adiogetto from the fifth was a declaration of love to his wife Alma. Although it sounds like it, it shouldn't make anyone sad, just touch the heart and soul.</t>
+  </si>
+  <si>
+    <t>One of the most beautiful pieces of music ever composed.</t>
+  </si>
+  <si>
+    <t>My favorite piece of music. So sad but filled with so much hope. Like a slow birth of a phoenix’s rise from the ashes.</t>
+  </si>
+  <si>
+    <t>This is humanity</t>
+  </si>
+  <si>
+    <t>It's stunning but a bit ott</t>
+  </si>
+  <si>
+    <t>3:03 Almost dancing...
+What a wonderful performance.</t>
+  </si>
+  <si>
+    <t>One of my favorites. I come here when my world is upside down. This is magnificent!</t>
+  </si>
+  <si>
+    <t>Excelente trabajo al incrementar la calidad de esta interpretación que nunca debe ser olvidada. Me encantaría ver el día en el que todas las sinfonías de Mahler dirigidas por Bernstein estén subidas en esta calidad (o al menos 1440p60) y al alcance de todos. Gracias por compartir.</t>
+  </si>
+  <si>
+    <t>Glorious!</t>
+  </si>
+  <si>
+    <t>Karajan was a Nazi, folks. Beethoven wasn't.</t>
+  </si>
+  <si>
+    <t>... and when Beethoven composed it, he was completely DEAF.</t>
+  </si>
+  <si>
+    <t>Masterpiece</t>
+  </si>
+  <si>
+    <t>How is it that the Germans gave us the absolute worst of humanity there has ever been, yet also the greatest?</t>
+  </si>
+  <si>
+    <t>more people need to hear this masterpiece. This is the GOAT orchestra for sure</t>
+  </si>
+  <si>
+    <t>Procurei essa execução, do maestro Karajan, por indicação da escola @ECAI e é emocionante.</t>
+  </si>
+  <si>
+    <t>Someone asked what is the greatest metal album of all time. I said this is. It is all here.</t>
+  </si>
+  <si>
+    <t>créditos: Wiener Philharmoniker, Karl Böhm?</t>
+  </si>
+  <si>
+    <t>Everyone be talkin' bout Ode To Joy, but the best part be startin' at 6:00.</t>
+  </si>
+  <si>
+    <t>1:02:06   tenor part never goes right here</t>
+  </si>
+  <si>
+    <t>terrible photography</t>
+  </si>
+  <si>
+    <t>Beethoven &amp; Karajan perfect musical match. Composer &amp; Interpreter - executor.</t>
+  </si>
+  <si>
+    <t>De las mejores composiciones musicales urbi et orbi!</t>
+  </si>
+  <si>
+    <t>Karajan Clockwork Orange Magnificent 1968 recording</t>
+  </si>
+  <si>
+    <t>A perfeição da música de Beethoven que mesmo totalmente surdo compos esta obra prima somada a sua mais perfeita interprete a Orquestra Filarmônica de Berlim e o lendário e mítico Herbert Von Karajan que de olhos fechados sentia a musica sem ver a partitura</t>
+  </si>
+  <si>
+    <t>. 40:00 .</t>
+  </si>
+  <si>
+    <t>The fact that this only has 2000 likes is crime against humanity.</t>
+  </si>
+  <si>
+    <t>Damn... that quality and camera work so futuristic at that time plus Karajan being a master on screen. No one can tell that this was made in 1968, this film is unnoticeable old.</t>
+  </si>
+  <si>
+    <t>Recorded: February 1968</t>
+  </si>
+  <si>
+    <t>Walter Berry was such a wonderful singer !</t>
+  </si>
+  <si>
+    <t>Is this the 1968 one or the 1977 new year's Eve one?</t>
+  </si>
+  <si>
+    <t>6:04, 24:20</t>
+  </si>
+  <si>
+    <t>This is great! I watch this all the time!</t>
+  </si>
+  <si>
+    <t>Que bien que toca la Orquesta Filarmonica de Berlin.</t>
+  </si>
+  <si>
+    <t>Meraviglioso! Indimenticabile interprete della musica immortale.</t>
+  </si>
+  <si>
+    <t>No es normal que una persona sorda pueda componer algo tan extraordinario</t>
+  </si>
+  <si>
+    <t>❤️</t>
+  </si>
+  <si>
+    <t>Jeez, one goosebump after another… Incredible. An amazing performance._x000D_
+_x000D_
+Considering the state of the world, I don’t think the 9th symphony has ever been needed more than now. We should be making music, not war.</t>
+  </si>
+  <si>
+    <t>One of the greatest conductors of all time and one of the greatest pieces of music ever composed. Incredible orchestra too. Long live to this music !</t>
+  </si>
+  <si>
+    <t>Even Karajan couldn't resist opening his eyes and mouthing the lyrics to ode to joy in the 4th movement. Such a beautiful and magnificent piece. Truly Beethoven's magnum opus.</t>
+  </si>
+  <si>
+    <t>Ah, tengo que decir, además, que la filmación es excelente. Hecha por un maestro del cine, sin duda alguna. Una obra de arte. Nada que envidiar a Bergman, si no el mejor, uno de los mejores cineastas. Felicitaciones, y gracias.</t>
+  </si>
+  <si>
+    <t>Celebro, admiro y amo toda la música que llamamos Clásica. Sin embargo esta sinfonía es la que me lleva a los cielos galopando. No, al Cielo, así con mayúscula, donde se halla la alegría. Sobre todo si es conducida por Herbert von Karajan, porque nadie como él la interpreta con la energía con la que la compuso Beethoven. En los primeros movimientos Beethoven nos hace vivir los pequeños y grandes conflictos del ser humano entre la tristezaa y la felicidad, las dudas y esperanzas, hasta que comenzamos ascender en los últimos movimientos, sobre todo con el coro, hacia la alegría....¡Oh, hermosa, hermosa y brillante sinfonía!</t>
+  </si>
+  <si>
+    <t>57:40 Jesus...que experiência. Derruba-me toda a vez.</t>
+  </si>
+  <si>
+    <t>Tempo tempo</t>
+  </si>
+  <si>
+    <t>Von Karajan God of classics</t>
+  </si>
+  <si>
+    <t>43:13 the dude looks like hitler no joke see for urself</t>
+  </si>
+  <si>
+    <t>광기 그 자체다. 극도로 치밀하게 계산되고 철저하게 절제된 결벽증 걸린 음악같다. 완벽하다못해 날카로워서 살이 베일까봐 소름이 다 돋는다.</t>
+  </si>
+  <si>
+    <t>15:07 18:00</t>
+  </si>
+  <si>
+    <t>This is not just musically stunning but also visually. Props to the film and editing crew.</t>
+  </si>
+  <si>
+    <t>43:51 I could listen to this over and over again, perhaps even forever. Beethoven, what a beautiful gift to this world. I'm always over the moon whenever I realized that I'm lucky enough to hear this music. Believe it or not, he wrote this undescribably gorgeous music when he was completely deaf, instead of giving up on composing, he would rather composed music like this which no composer has not think of. Musical Giant Ludwig Van Beethoven makes us to love Brotherhood of man and Humanity as much as we love his music!</t>
+  </si>
+  <si>
+    <t>“Oh bliss! Bliss and heaven! Oh, it was gorgeousness and gorgeousity made flesh. It was like a bird of rarest-spun heaven metal or like silvery wine flowing in a spaceship, gravity all nonsense now. As I slooshied, I knew such lovely pictures!” - Alex DeLarge</t>
+  </si>
+  <si>
+    <t>Premiered #otd in 1824 💐💐💐</t>
+  </si>
+  <si>
+    <t>53:08 the moment</t>
+  </si>
+  <si>
+    <t>39:08 supreme beauty</t>
+  </si>
+  <si>
+    <t>It is the definition of the perfection</t>
+  </si>
+  <si>
+    <t>Magistral</t>
+  </si>
+  <si>
+    <t>Two conductors in classical music history who have interpreted  No. 9 to its helm - Furtwangler and Karajan. No one else can touch them. Both were the conductors of BPO - the finest orchestra in the world.</t>
+  </si>
+  <si>
+    <t>Thanks for the upload!</t>
+  </si>
+  <si>
+    <t>THIS gets it right!!!</t>
+  </si>
+  <si>
+    <t>Karajan+Beethoven +Berlin Philharmonic =perfect</t>
+  </si>
+  <si>
+    <t>The Gifted GUNDULA!</t>
+  </si>
+  <si>
+    <t>That's it!!!</t>
+  </si>
+  <si>
+    <t>This is a bit faster than the other arrangements, yea?</t>
+  </si>
+  <si>
+    <t>Karajan and everyone who participated in this masterpiece (including the audio and video technicians): You are probably responsible for the human legacy in existence. At the end of time, if this work survives, our existence in infinite time would already have been useful and beautiful. BRAVO!</t>
+  </si>
+  <si>
+    <t>Exhilarating and soothing all at once.</t>
+  </si>
+  <si>
+    <t>Merci beaucoup pour le partage! ❤️
+Une larme à chaque écoute. La bise!</t>
+  </si>
+  <si>
+    <t>Voice of the God.</t>
+  </si>
+  <si>
+    <t>THIS IS IT. MANKIND NEVER ACHIEVED SUCH OLYMPIAN HEIGHTS EVER AGAIN.</t>
+  </si>
+  <si>
+    <t>Sencillamente celestial, q con esa música me sepulten</t>
+  </si>
+  <si>
+    <t>Fenomenal la Filarmónica de Berlin</t>
+  </si>
+  <si>
+    <t>Magistral el Maestraso Karajan</t>
+  </si>
+  <si>
+    <t>Sencillamente celestial</t>
+  </si>
+  <si>
+    <t>Thrilling. It always gives me goosebumps 51:31</t>
+  </si>
+  <si>
+    <t>46:33 49:51 43:05 40:30 50:30 51:23</t>
+  </si>
+  <si>
+    <t>This film spawned my lifelong love of classical music.</t>
+  </si>
+  <si>
+    <t>That Beethoven. He could write a tune. Am I right, or what?</t>
+  </si>
+  <si>
+    <t>Super super super ❤️❤️❤️</t>
+  </si>
+  <si>
+    <t>1- Allegro ma non troppo, un poco maestoso: 0:00
+2- Molto vivace: 15:06
+3- Adagio molto e cantabile: 24:18
+4-  Finale: 40:35</t>
+  </si>
+  <si>
+    <t>Beethoven + karajan = génies</t>
+  </si>
+  <si>
+    <t>This opens with the audacity usually associated with heavy metal.  It's just over an hour long?
+This is going to be a sprint.  Three minutes in, I'm excited for the rest!</t>
+  </si>
+  <si>
+    <t>SCHERZO 15:07 &lt;3</t>
+  </si>
+  <si>
+    <t>This is straight fire right here. Damn this is ripping! Awesome!!!</t>
+  </si>
+  <si>
+    <t>Marvelous</t>
+  </si>
+  <si>
+    <t>I would prefer to see clips of the artists and not the conductor.  I get that he is the one to re-create Beethoven, and I measure all Beethoven 7th and 9th after him because that is what I KNOW, but...I don't need to see him.  I dont need to see any of them play the magic...but if I want to watch, I prefer to watch the artisans.</t>
+  </si>
+  <si>
+    <t>Thank you! Thank you! Thank you!</t>
+  </si>
+  <si>
+    <t>Alguien en el 2022??</t>
+  </si>
+  <si>
+    <t>Es sin duda, la obra maestra de todos los tiempos. Con un estilo germánico único. Gracias por tremendo aporte.</t>
+  </si>
+  <si>
+    <t>👏👏👏👏👏👏</t>
+  </si>
+  <si>
+    <t>love it when karajan does the choral of ode to joy together with vocalists whilst conducting. Great recording with a legendary orchestra and conductor. Thanks for sharing!</t>
+  </si>
+  <si>
+    <t>Probably the best arrangement of the 9th Symphony. Bravo!!!!</t>
+  </si>
+  <si>
+    <t>perfekt!</t>
+  </si>
+  <si>
+    <t>Tuve la suerte de empezar a escuchar a La Orquesta Filarmónica de Berlín bajo la dirección del Maestro Herbert Von Karajan, cuando era yo un niño. Consiguió mi padre un juego de casetes de las nueve sinfonías de Beethoven de esa Orquesta con este Director.  Nunca he podido escuchar a otra orquestra ni Director, que las interprete con tanto sentimiento e identificación con el del Genio Compositor. Escuchar a esta Orquesta, Coro y Director interpretar a Beethoven como uno solo, tan increíblemente integrados, deja huella en quien tiene el privilegio de oírlos. Todavía conservo esos casetes.</t>
+  </si>
+  <si>
+    <t>Grande Mestre!  Karajan é maravilhoso!  Excelente !!!!</t>
+  </si>
+  <si>
+    <t>Karajan still goat</t>
+  </si>
+  <si>
+    <t>Mạnh bạo và thiết tha, bi thương và hùng tráng. Rất hay. 100 Like!</t>
+  </si>
+  <si>
+    <t>Great Karajan! Thank you for sharing!</t>
+  </si>
+  <si>
+    <t>Stunning! Can't believe so few people have seen this and I'm one of the lucky ones.</t>
   </si>
 </sst>
 </file>
@@ -115,13 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
+        <fgColor rgb="FF90EE90"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF90EE90"/>
+        <fgColor rgb="FFC0C0C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,13 +997,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,123 +1290,2553 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2572E7A-F87C-4564-93EA-48F7CA4F1E82}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4A6CB6-802B-4D0C-943A-C1645E8760A2}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="405" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C9AA26-1A77-4010-B822-093C98A2F73E}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="195.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>0.2298611111111111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01FD0EF-F64B-457A-A6EC-D3F44ADAC0D0}">
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
+      <c r="A3" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>0.6</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
+      <c r="A7" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
+      <c r="A8" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
+      <c r="A9" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
+      <c r="A11" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2.2034722222222221</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>4.1759259259259253E-2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2.1465277777777776</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>1.7986111111111109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2.4020833333333331</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>4.3472222222222225E-2</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>1.8812499999999999</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>4.4328703703703703E-2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>1.5131944444444445</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>0.34236111111111112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>2.4368055555555554</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" t="s">
         <v>2</v>
       </c>
     </row>
